--- a/input/dfa.xlsx
+++ b/input/dfa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chichi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_file\compiling_systems\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A07207-8604-412A-9AB4-A98031AF79F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28A8170-10C6-4FCD-8B31-84D70F4072BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{1D86A6F8-FC97-4C1C-85D8-43E93F0E6AB6}"/>
   </bookViews>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;[](){},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>29界符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,10 @@
   </si>
   <si>
     <t>37字符常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,:;[](){}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +718,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -744,13 +744,13 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -801,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1851,67 +1851,67 @@
     </row>
     <row r="33" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V33" s="6">
         <v>31</v>
@@ -1920,72 +1920,72 @@
         <v>31</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V34" s="3">
         <v>31</v>
@@ -1994,12 +1994,12 @@
         <v>31</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2027,64 +2027,64 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U36" s="3">
         <v>34</v>
@@ -2094,82 +2094,82 @@
         <v>34</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>

--- a/input/dfa.xlsx
+++ b/input/dfa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_file\compiling_systems\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28A8170-10C6-4FCD-8B31-84D70F4072BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA7A68A-50B3-470F-8DE3-2F06B297FFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{1D86A6F8-FC97-4C1C-85D8-43E93F0E6AB6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="107">
   <si>
     <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18十进制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,107 +180,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28标识关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_yzYZ[g,w][G,W]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29界符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1运算符*%^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30运算符/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33注释/**/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34注释//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37字符常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的16进制数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字0后的错误字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的10进制数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的8进制数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的科学计数法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24e+-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26单个字符.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27浮点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28标识关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_yzYZ[g,w][G,W]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29界符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1运算符*%^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30运算符/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33注释/**/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34注释//</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单撇号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35'</t>
+    <t>-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的浮点数，形如1.或.1或1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -292,11 +384,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37字符常量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,:;[](){}</t>
+    <t>字符常量界符未封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的字符常量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单引号'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双引号"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\0结束符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$#@`~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,:;?[](){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行注释未封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串常量未封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39字符串常量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +477,23 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -370,20 +547,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,6 +570,48 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,116 +928,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02203334-E4E3-490D-8F0A-D873918A1EA6}">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="3.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="3.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="13.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="3.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="8">
         <v>0</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="8">
         <v>1234567</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -854,38 +1090,56 @@
         <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="3">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="1">
         <v>29</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="1">
         <v>0</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="3"/>
+      <c r="X2" s="1">
         <v>35</v>
       </c>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>51</v>
+      <c r="Y2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -906,13 +1160,23 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="3"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="1"/>
+      <c r="AD3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1"/>
@@ -942,13 +1206,23 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="3"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="1"/>
+      <c r="AD4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1"/>
@@ -970,13 +1244,23 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
       <c r="W5" s="3"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="1"/>
+      <c r="AD5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1"/>
@@ -1006,13 +1290,23 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="3"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="1"/>
+      <c r="AD6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1"/>
@@ -1034,13 +1328,23 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
       <c r="W7" s="3"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="1"/>
+      <c r="AD7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
@@ -1064,13 +1368,23 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
       <c r="W8" s="3"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="1"/>
+      <c r="AD8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1"/>
@@ -1092,13 +1406,23 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
       <c r="W9" s="3"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="1"/>
+      <c r="AD9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1"/>
@@ -1122,13 +1446,23 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="3"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="1"/>
+      <c r="AD10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
@@ -1150,13 +1484,23 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="3"/>
       <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="1"/>
+      <c r="AD11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1"/>
@@ -1180,13 +1524,23 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="3"/>
       <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="1"/>
+      <c r="AD12" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1"/>
@@ -1208,13 +1562,17 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
       <c r="W13" s="3"/>
       <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1"/>
@@ -1238,13 +1596,17 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="3"/>
       <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1"/>
@@ -1266,13 +1628,17 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="3"/>
       <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1"/>
@@ -1296,13 +1662,17 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="3"/>
       <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1"/>
@@ -1324,13 +1694,17 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="3"/>
       <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1"/>
@@ -1354,13 +1728,17 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="3"/>
       <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1"/>
@@ -1382,14 +1760,18 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="3"/>
       <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1411,23 +1793,41 @@
       <c r="O20" s="1">
         <v>18</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="R20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="T20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
+      <c r="X20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1447,23 +1847,43 @@
         <v>20</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P21" s="1">
         <v>21</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="Q21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
+      <c r="X21" s="1">
+        <v>-3</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1483,33 +1903,75 @@
         <v>20</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="X22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="M23" s="1">
         <v>22</v>
       </c>
@@ -1519,23 +1981,49 @@
       <c r="O23" s="1">
         <v>22</v>
       </c>
-      <c r="P23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="Q23" s="1">
         <v>22</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-2</v>
+      </c>
+      <c r="V23" s="1">
+        <v>-2</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="X23" s="1">
+        <v>-2</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1557,95 +2045,213 @@
       <c r="O24" s="1">
         <v>22</v>
       </c>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="Q24" s="1">
         <v>22</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="X24" s="1">
+        <v>-2</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="N25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
+      <c r="O25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1659,61 +2265,135 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="X27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1727,29 +2407,49 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="R29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>44</v>
+      <c r="X29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1763,35 +2463,39 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T30" s="1"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
       <c r="W30" s="3"/>
       <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>46</v>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1812,20 +2516,24 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
       <c r="W31" s="3"/>
       <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>52</v>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1844,162 +2552,190 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
       <c r="W32" s="3"/>
       <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="3">
+        <v>31</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X33" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" s="1">
+        <v>31</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X34" s="1">
+        <v>31</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="V33" s="6">
-        <v>31</v>
-      </c>
-      <c r="W33" s="6">
-        <v>31</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V34" s="3">
-        <v>31</v>
-      </c>
-      <c r="W34" s="3">
-        <v>31</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2020,186 +2756,272 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
       <c r="W35" s="3"/>
       <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36" s="1">
+        <v>34</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X36" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U36" s="3">
-        <v>34</v>
-      </c>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3">
-        <v>34</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3">
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X38" s="1">
         <v>37</v>
       </c>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>65</v>
+      <c r="Y38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2220,10 +3042,132 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
       <c r="W39" s="3"/>
       <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA40" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB40" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/input/dfa.xlsx
+++ b/input/dfa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\py_file\compiling_systems\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA7A68A-50B3-470F-8DE3-2F06B297FFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A834020-E0EA-4E47-ADA9-11806FCAAD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{1D86A6F8-FC97-4C1C-85D8-43E93F0E6AB6}"/>
   </bookViews>
@@ -931,7 +931,7 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1113,9 +1113,7 @@
       <c r="U2" s="1">
         <v>29</v>
       </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
+      <c r="V2" s="1"/>
       <c r="W2" s="3"/>
       <c r="X2" s="1">
         <v>35</v>
